--- a/data/large/data3.xlsx
+++ b/data/large/data3.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,21 +472,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21_D_03</t>
+          <t>23_E_02,23_B_02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M_58</t>
+          <t>M_14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -508,21 +508,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>23_E_02,23_B_02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M_04</t>
+          <t>L_14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MT_63</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -544,21 +544,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L_04</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MT_63</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -580,21 +580,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24_A_02,22_A_03,22_E_02</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M_54</t>
+          <t>L_52</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -616,25 +616,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24_E_01,21_E_02</t>
+          <t>22_E_01,22_B_01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MT_25</t>
+          <t>PT_28</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -652,30 +652,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23_A_02,21_D_02</t>
+          <t>24_E_02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>M_58</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -688,21 +688,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23_A_02,21_D_02</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L_58</t>
+          <t>M_57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_46</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -724,21 +724,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21_E_01</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M_01</t>
+          <t>L_57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_46</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -760,25 +760,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23_E_02,23_D_03</t>
+          <t>23_B_03,22_E_03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>PT_20</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -796,30 +796,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23_E_02,23_D_03</t>
+          <t>24_B_02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L_57</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>PT_04</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -832,30 +832,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23_A_03,22_A_01,24_E_03</t>
+          <t>22_E_02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PT_27</t>
+          <t>MT_06</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -868,30 +868,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21_D_01</t>
+          <t>22_E_02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>L_61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>MT_06</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -904,25 +904,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21_E_01,21_A_01</t>
+          <t>21_B_02,23_B_01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -940,30 +940,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22_D_02,21_A_03</t>
+          <t>21_B_02,23_B_01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>L_43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PT_24</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -976,30 +976,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24_E_02</t>
+          <t>21_B_02,24_E_01,23_E_03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PT_25</t>
+          <t>MT_16</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1012,30 +1012,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24_E_03,24_E_02,22_D_01</t>
+          <t>21_B_01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>MT_37</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1048,21 +1048,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>22_E_03,23_B_02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>M_17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>22_E_03,23_B_02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L_03</t>
+          <t>L_17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1120,21 +1120,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21_A_02</t>
+          <t>23_E_03,22_B_01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_66</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MT_04</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23_D_01</t>
+          <t>21_B_01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PT_13</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1192,21 +1192,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21_D_02</t>
+          <t>21_E_02,24_E_02,21_E_01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M_69</t>
+          <t>M_29</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1228,21 +1228,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23_E_03,22_D_02,23_E_01</t>
+          <t>24_E_02,24_B_03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M_48</t>
+          <t>M_46</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MT_33</t>
+          <t>MT_16</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1264,21 +1264,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24_D_03</t>
+          <t>24_B_01,22_B_03,24_B_03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>PT_09</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1300,21 +1300,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22_A_01,24_A_03</t>
+          <t>23_B_03,22_E_02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MT_26</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1336,21 +1336,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22_A_01,24_A_03</t>
+          <t>23_B_03,22_E_02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L_51</t>
+          <t>L_13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MT_26</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22_D_01</t>
+          <t>21_E_02,22_E_02,24_B_01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PT_21</t>
+          <t>PT_02</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1408,21 +1408,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>22_E_01,21_B_01,24_E_01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M_26</t>
+          <t>M_07</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_01</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1444,21 +1444,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>22_B_01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L_26</t>
+          <t>M_11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_48</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1480,30 +1480,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24_A_02,21_A_01</t>
+          <t>22_B_01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>L_11</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PT_21</t>
+          <t>MT_48</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1516,30 +1516,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23_E_02</t>
+          <t>21_B_03,21_E_03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>M_27</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MT_46</t>
+          <t>PT_26</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1552,21 +1552,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23_E_02</t>
+          <t>24_E_03,24_B_01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L_27</t>
+          <t>M_51</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MT_46</t>
+          <t>MT_48</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1588,30 +1588,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22_A_02,21_A_02</t>
+          <t>24_E_03,24_B_01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>L_51</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>MT_48</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1624,21 +1624,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24_D_03</t>
+          <t>21_B_02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_56</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1660,30 +1660,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22_A_03</t>
+          <t>21_B_02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>L_35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>MT_56</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1696,21 +1696,21 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23_D_03</t>
+          <t>24_E_01,24_B_03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>M_48</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_58</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1732,25 +1732,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23_E_02</t>
+          <t>21_E_02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>M_10</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>PT_08</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1768,21 +1768,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23_E_02</t>
+          <t>22_B_03,23_E_02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>L_10</t>
+          <t>M_49</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1804,30 +1804,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22_A_01,23_A_02,21_D_01</t>
+          <t>22_B_03,23_E_02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>L_49</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PT_16</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1840,25 +1840,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22_D_01,24_A_01</t>
+          <t>22_E_03,24_E_03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PT_10</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1876,21 +1876,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23_E_03,22_D_02</t>
+          <t>22_E_03,24_E_03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>M_33</t>
+          <t>L_24</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1912,21 +1912,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23_E_03,22_D_02</t>
+          <t>22_E_02,22_B_03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>L_33</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_09</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1948,30 +1948,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22_E_01,24_A_02</t>
+          <t>24_B_02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>M_66</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1984,30 +1984,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22_E_01,24_A_02</t>
+          <t>21_B_03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>L_66</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22_E_01,21_E_02</t>
+          <t>21_B_01,22_E_01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>M_32</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MT_66</t>
+          <t>MT_08</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2056,21 +2056,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22_E_01,21_E_02</t>
+          <t>21_E_02,23_B_02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L_32</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MT_66</t>
+          <t>MT_25</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2092,21 +2092,21 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21_D_03</t>
+          <t>21_B_02</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>M_05</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2128,21 +2128,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>21_D_03</t>
+          <t>21_B_02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>L_05</t>
+          <t>L_35</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2164,30 +2164,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>24_E_03</t>
+          <t>21_E_03,23_B_02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MT_42</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2200,21 +2200,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>22_B_03,23_B_03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>M_17</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2236,21 +2236,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>22_B_03,23_B_03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>L_17</t>
+          <t>L_28</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2272,21 +2272,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>21_B_01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>M_68</t>
+          <t>M_26</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_16</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2308,30 +2308,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>21_E_01,22_E_01,23_E_03</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L_68</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2344,17 +2344,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>21_E_03,21_B_03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>M_58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>MT_01</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2380,17 +2380,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23_E_01</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>M_58</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MT_35</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2416,21 +2416,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23_E_01</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>L_58</t>
+          <t>L_27</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MT_35</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2452,21 +2452,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21_A_03,23_E_03</t>
+          <t>21_E_02,21_B_01,24_E_01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_69</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2488,30 +2488,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21_A_03,23_E_03</t>
+          <t>23_B_03</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>L_23</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2524,30 +2524,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>24_E_01,21_A_01</t>
+          <t>22_B_03,23_E_01,22_E_03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>PT_25</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2560,17 +2560,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>24_E_01,21_A_01</t>
+          <t>24_B_02,24_E_02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>L_53</t>
+          <t>M_51</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2596,21 +2596,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22_E_01,24_D_01</t>
+          <t>23_B_01,22_B_03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>M_66</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2632,21 +2632,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22_E_01,24_D_01</t>
+          <t>24_B_02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>L_30</t>
+          <t>M_39</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2668,21 +2668,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24_D_03,24_E_01</t>
+          <t>24_B_01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_38</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>MT_34</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2704,30 +2704,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>24_B_01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>L_38</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PT_29</t>
+          <t>MT_34</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2740,30 +2740,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>24_E_03</t>
+          <t>24_B_02,24_B_01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>M_05</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MT_13</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2776,21 +2776,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22_E_01,22_D_03</t>
+          <t>24_B_01,21_E_03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>M_04</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>MT_03</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2812,21 +2812,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23_D_01,22_D_03,22_E_03</t>
+          <t>24_E_02,21_B_01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>M_26</t>
+          <t>M_57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_43</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2848,21 +2848,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_38</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MT_29</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2884,21 +2884,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23_A_03,22_E_02</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>L_38</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2920,21 +2920,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>23_A_03,22_E_02</t>
+          <t>22_E_01,21_B_02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>L_24</t>
+          <t>M_57</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2956,21 +2956,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22_E_01,22_D_02</t>
+          <t>22_E_01,21_B_02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M_37</t>
+          <t>L_57</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2992,21 +2992,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>23_E_01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_09</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_37</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3028,21 +3028,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>23_E_01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>L_09</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_37</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3064,21 +3064,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21_E_01</t>
+          <t>21_E_03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MT_42</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3100,17 +3100,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24_E_01</t>
+          <t>21_B_02,24_E_01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>M_13</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>PT_08</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>21_E_02,24_A_01</t>
+          <t>22_E_01</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3146,11 +3146,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3172,21 +3172,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>22_E_03</t>
+          <t>22_B_03,23_E_03</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_21</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3208,30 +3208,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22_E_03</t>
+          <t>24_B_01,22_E_03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>L_52</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3244,17 +3244,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>21_D_02,24_D_03</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3280,21 +3280,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24_E_03,23_D_02</t>
+          <t>22_E_02</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>M_17</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3316,25 +3316,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>23_D_01,22_D_02</t>
+          <t>22_B_02,24_E_03</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3352,17 +3352,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>23_E_01,21_E_01</t>
+          <t>22_B_02,23_E_01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>M_06</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MT_63</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>24_D_02,21_A_02</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3424,21 +3424,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>24_D_02,21_A_02</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3460,25 +3460,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>23_D_03,22_D_03</t>
+          <t>21_B_02,22_B_02</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>M_63</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>MT_63</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3496,21 +3496,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>23_D_02</t>
+          <t>24_B_02</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>M_11</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3532,21 +3532,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>23_D_02</t>
+          <t>24_B_02</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>L_30</t>
+          <t>L_11</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3568,17 +3568,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>21_E_01,24_D_02</t>
+          <t>24_B_01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3604,30 +3604,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>21_D_03</t>
+          <t>23_E_02,21_E_03,22_B_01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>M_66</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>MT_28</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3640,21 +3640,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>24_A_01,22_E_02</t>
+          <t>22_B_01,22_B_02</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3676,21 +3676,21 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>24_E_03</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>M_59</t>
+          <t>M_23</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3712,21 +3712,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>L_59</t>
+          <t>M_57</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_05</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3748,21 +3748,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>23_D_03,24_A_03</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>L_57</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_05</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3784,30 +3784,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>23_D_03,24_A_03</t>
+          <t>23_E_02,24_B_01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>L_67</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>PT_14</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3820,25 +3820,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>23_D_03,21_D_02</t>
+          <t>21_B_02,24_B_03</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_06</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3856,21 +3856,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>21_B_02,24_B_03</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>L_06</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3892,25 +3892,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>21_E_01,23_A_03</t>
+          <t>21_B_01,23_B_01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3928,21 +3928,21 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>23_D_01,22_A_02</t>
+          <t>24_E_01,22_B_02</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3964,30 +3964,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>23_D_01,22_A_02</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4000,30 +4000,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>22_D_01</t>
+          <t>21_E_03,24_E_03</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PT_14</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4036,17 +4036,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>23_E_01</t>
+          <t>24_E_03,24_B_02,23_B_02</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PT_17</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4072,30 +4072,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>23_D_02,21_D_01</t>
+          <t>21_E_03</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>MT_25</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4108,30 +4108,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>23_E_01,22_E_01</t>
+          <t>22_B_03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>P_07</t>
+          <t>M_56</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PT_01</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4144,21 +4144,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>24_E_02</t>
+          <t>22_B_03</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>L_56</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MT_22</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4180,21 +4180,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>22_A_02,23_A_03</t>
+          <t>22_B_03,24_E_01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4216,21 +4216,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>22_A_02,23_A_03</t>
+          <t>22_B_03,24_E_01</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>L_25</t>
+          <t>L_03</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4252,21 +4252,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>24_D_01</t>
+          <t>21_E_01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4288,21 +4288,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>24_D_01</t>
+          <t>21_E_01</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L_21</t>
+          <t>L_27</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4324,17 +4324,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>22_A_03</t>
+          <t>22_E_01,22_B_03</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_48</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4342,12 +4342,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4360,21 +4360,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>22_B_02,23_B_01</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>M_16</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_68</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4396,21 +4396,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>24_B_01,23_B_01</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>L_60</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_45</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4432,21 +4432,21 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>23_A_02,22_A_01</t>
+          <t>23_B_02,23_E_03,22_B_02</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MT_09</t>
+          <t>MT_65</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4468,21 +4468,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>23_A_02,22_A_01</t>
+          <t>23_E_02,24_E_02</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>M_53</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MT_09</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -4504,17 +4504,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>22_E_01</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>M_06</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4540,21 +4540,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>24_A_02</t>
+          <t>22_E_01</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>M_02</t>
+          <t>L_06</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>MT_50</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -4576,21 +4576,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>21_E_01,21_D_01,21_A_01</t>
+          <t>21_B_02,24_B_03</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -4612,21 +4612,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>22_E_03,24_D_03</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_45</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -4648,21 +4648,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>22_E_03,24_D_03</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>L_31</t>
+          <t>L_40</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_45</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -4684,21 +4684,21 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>24_E_02</t>
+          <t>24_B_03,23_E_03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_58</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4720,21 +4720,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>24_B_03,23_E_03</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>M_32</t>
+          <t>L_58</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>MT_22</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4756,21 +4756,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>21_A_03,21_A_01</t>
+          <t>24_E_02</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>M_41</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4792,30 +4792,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>24_D_01,21_E_02</t>
+          <t>21_B_03</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4828,17 +4828,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>23_E_02</t>
+          <t>24_B_02,24_E_01</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>M_56</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MT_35</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4864,17 +4864,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>21_D_03,21_E_01,24_A_02</t>
+          <t>24_E_02</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PT_18</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4882,12 +4882,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4900,21 +4900,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>21_A_02,24_E_01,21_E_01</t>
+          <t>24_E_02</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>M_64</t>
+          <t>L_52</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4936,21 +4936,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>24_B_02,22_E_02</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>M_14</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4972,21 +4972,21 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>24_B_02,22_E_02</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>L_54</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>MT_42</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -5008,21 +5008,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>24_E_02</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_37</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5044,21 +5044,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>24_E_02</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>L_37</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5071,2310 +5071,6 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>21_A_02</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>M_08</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>MT_25</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>32</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>21_A_02</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>L_08</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>MT_25</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>11</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>22_D_02,22_E_02</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>M_31</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>MT_16</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>12</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>23_D_01</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>M_60</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>MT_64</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>24</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>23_D_01</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>L_60</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>MT_64</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>11</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>23_E_03</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>M_18</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>MT_32</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>24</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>21_E_01,21_A_01</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>P_09</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>PT_29</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>8</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>23_E_03</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>M_26</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>MT_05</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>32</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>21_A_03</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>M_35</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>MT_58</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>20</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>21_A_01,22_D_01,24_E_03</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>M_37</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>MT_61</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>20</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>22_A_03,21_D_03</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>M_53</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>MT_37</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>32</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>21_E_02</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>M_51</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>MT_36</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>24</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>22_A_01,22_D_01</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>M_22</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>MT_38</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>16</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>21_A_02</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>M_59</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>MT_24</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>20</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>23_E_01,22_A_01</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>M_01</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>MT_57</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>24</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>23_E_01,22_A_01</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>L_01</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>MT_57</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>8</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>145</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>23_E_03,21_E_03</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>M_38</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>MT_17</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>20</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>146</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>23_E_03,21_E_03</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>L_38</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>MT_17</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>8</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>147</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>23_D_02</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>P_09</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>PT_01</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>12</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>148</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>22_D_01,23_D_02</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>M_02</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>MT_05</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>16</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>149</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>22_D_01,23_D_02</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>L_02</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>MT_05</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>6</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>150</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>23_A_01</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>M_08</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>MT_20</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>8</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>151</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>22_E_02,21_D_02</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>P_02</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>PT_23</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>20</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>21_E_02,21_D_02</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>P_06</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>PT_22</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>16</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>23_D_01,22_E_03,23_E_01</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>P_07</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>PT_21</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>8</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>21_E_03,24_E_03,23_D_03</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>M_49</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>MT_32</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>8</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>21_D_01</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>M_58</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>MT_10</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>12</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>21_D_01</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>L_58</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>MT_10</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>5</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>22_E_01</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>M_49</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>MT_60</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>20</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>22_E_01</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>L_49</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>MT_60</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>6</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>24_A_03</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>M_19</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>MT_54</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>8</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>24_A_03</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>L_19</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>MT_54</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>3</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>24_E_02</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>M_01</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>MT_62</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>24</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>24_E_02</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>L_01</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>MT_62</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>10</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>21_E_03,23_A_01</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>M_25</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>MT_44</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>20</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>21_A_03,23_E_02</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>M_28</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>MT_67</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>32</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>24_E_02</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>M_17</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>MT_31</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>24</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>24_E_02</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>L_17</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>MT_31</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>9</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>24_D_03,24_A_03</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>P_02</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>PT_16</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>20</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>22_A_02,23_D_02</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>P_04</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>PT_10</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>16</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>22_A_03,21_D_02,23_E_03</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>M_20</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>MT_06</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>24</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>23_D_02,21_A_02</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>M_32</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>MT_67</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>32</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>23_A_01,22_A_01</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>M_29</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>MT_37</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>16</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>23_A_01,22_A_01</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>L_29</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>MT_37</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>6</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>21_A_01</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>M_10</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>MT_22</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>8</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>24_E_02</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>P_08</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>PT_29</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>24</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>24_A_02</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>M_52</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>MT_57</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>12</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>24_A_02</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>L_52</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>MT_57</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>5</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>21_D_01,23_D_03</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>P_05</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>PT_22</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>8</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>22_A_02</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>P_01</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>PT_24</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>8</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>22_A_03</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>M_16</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>MT_26</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>20</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>22_A_03</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>L_16</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>MT_26</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>6</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>22_A_01,21_A_02</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>M_03</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>MT_67</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>8</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>23_D_01,21_E_03</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>P_02</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>PT_11</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>12</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>24_E_01,24_D_03,21_E_02</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>M_30</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>MT_53</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>8</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>23_D_02</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>P_08</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>PT_13</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>24</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>24_E_02,23_A_03</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>M_32</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>MT_32</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>12</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>24_E_02,23_A_03</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>L_32</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>MT_32</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>5</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>24_D_03</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>M_09</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>MT_25</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>20</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>21_D_02</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>M_18</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>MT_07</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>8</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>21_D_02</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>L_18</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>MT_07</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>4</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>23_E_01</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>M_38</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>MT_39</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>24</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>23_E_01</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>L_38</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>MT_39</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>10</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>21_A_02</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>P_08</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>PT_16</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>8</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7389,7 +5085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7415,7 +5111,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21_A_01</t>
+          <t>21_B_01</t>
         </is>
       </c>
     </row>
@@ -7425,7 +5121,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21_A_02</t>
+          <t>21_B_02</t>
         </is>
       </c>
     </row>
@@ -7435,7 +5131,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>21_B_03</t>
         </is>
       </c>
     </row>
@@ -7445,7 +5141,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21_D_01</t>
+          <t>21_E_01</t>
         </is>
       </c>
     </row>
@@ -7455,7 +5151,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21_D_02</t>
+          <t>21_E_02</t>
         </is>
       </c>
     </row>
@@ -7465,7 +5161,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21_D_03</t>
+          <t>21_E_03</t>
         </is>
       </c>
     </row>
@@ -7475,7 +5171,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21_E_01</t>
+          <t>22_B_01</t>
         </is>
       </c>
     </row>
@@ -7485,7 +5181,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21_E_02</t>
+          <t>22_B_02</t>
         </is>
       </c>
     </row>
@@ -7495,7 +5191,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21_E_03</t>
+          <t>22_B_03</t>
         </is>
       </c>
     </row>
@@ -7505,7 +5201,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22_A_01</t>
+          <t>22_E_01</t>
         </is>
       </c>
     </row>
@@ -7515,7 +5211,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>22_E_02</t>
         </is>
       </c>
     </row>
@@ -7525,7 +5221,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22_A_03</t>
+          <t>22_E_03</t>
         </is>
       </c>
     </row>
@@ -7535,7 +5231,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22_D_01</t>
+          <t>23_B_01</t>
         </is>
       </c>
     </row>
@@ -7545,7 +5241,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22_D_02</t>
+          <t>23_B_02</t>
         </is>
       </c>
     </row>
@@ -7555,7 +5251,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22_D_03</t>
+          <t>23_B_03</t>
         </is>
       </c>
     </row>
@@ -7565,7 +5261,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22_E_01</t>
+          <t>23_E_01</t>
         </is>
       </c>
     </row>
@@ -7575,7 +5271,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22_E_02</t>
+          <t>23_E_02</t>
         </is>
       </c>
     </row>
@@ -7585,7 +5281,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22_E_03</t>
+          <t>23_E_03</t>
         </is>
       </c>
     </row>
@@ -7595,7 +5291,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>24_B_01</t>
         </is>
       </c>
     </row>
@@ -7605,7 +5301,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>24_B_02</t>
         </is>
       </c>
     </row>
@@ -7615,7 +5311,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>24_B_03</t>
         </is>
       </c>
     </row>
@@ -7625,7 +5321,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23_D_01</t>
+          <t>24_E_01</t>
         </is>
       </c>
     </row>
@@ -7635,7 +5331,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23_D_02</t>
+          <t>24_E_02</t>
         </is>
       </c>
     </row>
@@ -7644,126 +5340,6 @@
         <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>23_D_03</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>23_E_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>23_E_02</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>23_E_03</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>24_A_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>24_A_02</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>24_A_03</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>24_D_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>24_D_02</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>24_D_03</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>24_E_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>24_E_02</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
         <is>
           <t>24_E_03</t>
         </is>
@@ -7780,7 +5356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7816,17 +5392,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MT_04</t>
+          <t>MT_01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,-1,-1,-1,-1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7836,17 +5412,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>MT_03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,1,0,1,1</t>
+          <t>1,1,1,-1,0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7856,12 +5432,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,-1</t>
+          <t>1,1,0,-1,0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7876,17 +5452,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>MT_06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1,0,0,0,1</t>
+          <t>1,-1,1,1,0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -7896,17 +5472,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,0</t>
+          <t>0,0,1,-1,1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7916,17 +5492,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MT_09</t>
+          <t>MT_08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,1,0,0,-1</t>
+          <t>-1,-1,-1,-1,1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -7936,12 +5512,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>MT_09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1,0,0,-1,0</t>
+          <t>0,0,0,1,1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7956,12 +5532,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1,-1,-1,-1,-1</t>
+          <t>0,1,1,0,0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7976,12 +5552,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1,-1,1,-1,0</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7996,17 +5572,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MT_13</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,0,-1,0,1</t>
+          <t>0,0,1,-1,0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8016,12 +5592,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1,1,0,0,-1</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8036,17 +5612,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1,-1,0,1,1</t>
+          <t>0,0,0,-1,1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8056,17 +5632,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MT_17</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1,0,-1,1,-1</t>
+          <t>0,0,1,1,1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8076,17 +5652,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>MT_21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1,0,1,-1,0</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8096,12 +5672,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-1,0,1,0,0</t>
+          <t>1,0,0,0,1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -8116,17 +5692,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MT_22</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,1,0,0,0</t>
+          <t>1,0,1,0,1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8136,17 +5712,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,1,0,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8156,12 +5732,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MT_24</t>
+          <t>MT_28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1,-1,-1,1,0</t>
+          <t>1,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -8176,12 +5752,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MT_25</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,1,0,1,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -8196,17 +5772,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MT_26</t>
+          <t>MT_34</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,0,0,-1,0</t>
+          <t>-1,0,0,0,1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8216,17 +5792,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,1,0,1,1</t>
+          <t>0,-1,0,1,-1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8236,17 +5812,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MT_29</t>
+          <t>MT_37</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1,1,0,-1,0</t>
+          <t>-1,-1,0,0,1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8256,17 +5832,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1,-1,1,1,0</t>
+          <t>0,1,0,-1,0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8276,17 +5852,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MT_32</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1,1,0,0,0</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8296,12 +5872,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MT_33</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-1,-1,-1,0,-1</t>
+          <t>-1,0,1,-1,0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -8316,17 +5892,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MT_35</t>
+          <t>MT_43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,-1,1,0,1</t>
+          <t>1,-1,1,0,-1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8336,17 +5912,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MT_36</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1,0,0,1,-1</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8356,17 +5932,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MT_37</t>
+          <t>MT_45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,-1,-1,1,-1</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8376,17 +5952,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MT_38</t>
+          <t>MT_46</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,1,1,0,-1</t>
+          <t>0,0,0,1,-1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8396,17 +5972,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MT_39</t>
+          <t>MT_48</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1,0,0,0,0</t>
+          <t>1,-1,1,0,0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8416,17 +5992,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MT_42</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,0,0,0,-1</t>
+          <t>0,1,0,1,0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8436,12 +6012,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,0</t>
+          <t>0,0,1,1,-1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -8456,17 +6032,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-1,0,1,1,-1</t>
+          <t>1,0,0,-1,1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8476,17 +6052,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MT_46</t>
+          <t>MT_56</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,0,-1,-1,-1</t>
+          <t>1,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8496,12 +6072,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
+          <t>1,0,1,0,1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -8516,12 +6092,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MT_50</t>
+          <t>MT_58</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-1,-1,0,0,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -8536,17 +6112,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-1,1,0,0,1</t>
+          <t>1,1,1,0,-1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8556,12 +6132,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1,1,-1,-1,0</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8576,17 +6152,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MT_53</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,1,-1,0,0</t>
+          <t>0,1,0,1,0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8596,17 +6172,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_63</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,-1,-1,1,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8616,12 +6192,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,-1,-1,-1,0</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8636,17 +6212,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MT_58</t>
+          <t>MT_65</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8656,17 +6232,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1,1,1,1,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8676,17 +6252,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_68</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1,0,1,0,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8696,12 +6272,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>MT_69</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,0,1,0,-1</t>
+          <t>-1,0,1,1,-1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8716,17 +6292,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>PT_02</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,0</t>
+          <t>-1,0,-1,0,1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8736,17 +6312,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MT_63</t>
+          <t>PT_04</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-1,0,-1,-1,-1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8756,12 +6332,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1,0,1,-1,0</t>
+          <t>0,0,-1,-1,-1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8776,17 +6352,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>PT_08</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-1,-1,-1,1,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8796,17 +6372,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MT_66</t>
+          <t>PT_09</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1,1,-1,-1,1</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8816,17 +6392,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,1,-1,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8836,17 +6412,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PT_01</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1,0,1,1,0</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8856,12 +6432,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1,1,-1,1,0</t>
+          <t>1,0,0,1,-1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -8876,12 +6452,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>PT_14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-1,-1,-1,0,0</t>
+          <t>1,1,0,0,0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -8896,17 +6472,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-1,0,1,1,1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8916,17 +6492,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-1,0,1,1,0</t>
+          <t>1,0,-1,0,1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8936,17 +6512,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PT_10</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,1,-1,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8956,17 +6532,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PT_11</t>
+          <t>PT_20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0,0,1,1,1</t>
+          <t>1,0,0,-1,0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8976,12 +6552,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-1,-1,0,1,0</t>
+          <t>1,0,0,0,1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8996,17 +6572,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PT_13</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,1,0,1,1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -9016,17 +6592,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PT_14</t>
+          <t>PT_25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-1,0,-1,0,0</t>
+          <t>0,-1,0,0,-1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9036,17 +6612,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>PT_26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,1,0,-1,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -9056,277 +6632,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PT_16</t>
+          <t>PT_28</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1,0,1,-1,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>PT_17</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0,1,-1,0,0</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>PT_18</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>-1,0,0,0,-1</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PT_19</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1,1,0,0,0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>PT_20</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1,0,0,1,0</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>PT_21</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1,-1,1,0,-1</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>PT_22</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>-1,-1,1,0,0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>PT_23</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0,1,0,1,0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>PT_24</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1,0,-1,1,1</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>PT_25</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>-1,1,1,-1,-1</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>PT_26</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>0,0,0,0,-1</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>PT_27</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>-1,0,-1,0,0</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>PT_28</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>-1,-1,1,-1,0</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PT_29</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1,-1,0,0,-1</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -9341,7 +6657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9372,12 +6688,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L_01</t>
+          <t>L_03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,0,0,1,0</t>
+          <t>-1,1,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9387,12 +6703,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L_02</t>
+          <t>L_06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1,-1,1,0,-1</t>
+          <t>-1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9402,12 +6718,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L_03</t>
+          <t>L_09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1,0,1,0,1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9417,12 +6733,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L_04</t>
+          <t>L_11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,0,0,1,0</t>
+          <t>-1,1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -9432,12 +6748,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L_05</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,-1,0,0,-1</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -9447,12 +6763,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L_08</t>
+          <t>L_13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,1,0,1,1</t>
+          <t>1,1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9462,12 +6778,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L_10</t>
+          <t>L_14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1,1,0,0,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9477,12 +6793,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>L_17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,0,0,1,1</t>
+          <t>0,0,1,0,-1</t>
         </is>
       </c>
     </row>
@@ -9492,12 +6808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L_17</t>
+          <t>L_24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1,0,-1,0,0</t>
+          <t>0,0,0,1,-1</t>
         </is>
       </c>
     </row>
@@ -9507,12 +6823,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L_18</t>
+          <t>L_27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1,1,0,-1,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9522,12 +6838,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L_19</t>
+          <t>L_28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,1</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9537,12 +6853,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L_21</t>
+          <t>L_35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1,1,1,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9552,12 +6868,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>L_23</t>
+          <t>L_37</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1,0,-1,1,-1</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9567,12 +6883,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L_24</t>
+          <t>L_38</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1,-1,1,1,0</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9582,12 +6898,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L_25</t>
+          <t>L_40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,0,0,-1,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9597,12 +6913,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L_26</t>
+          <t>L_43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1,1,-1,-1,1</t>
+          <t>-1,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9612,12 +6928,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>L_27</t>
+          <t>L_49</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,-1,0,0,0</t>
+          <t>1,1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9627,12 +6943,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L_29</t>
+          <t>L_51</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-1,-1,-1,0,0</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9642,12 +6958,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>L_30</t>
+          <t>L_52</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,1</t>
+          <t>1,1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9657,12 +6973,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>L_31</t>
+          <t>L_54</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,1,-1,-1,-1</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9672,12 +6988,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L_32</t>
+          <t>L_56</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,0,-1,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9687,12 +7003,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L_33</t>
+          <t>L_57</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,0,1,0,0</t>
+          <t>1,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9702,12 +7018,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L_38</t>
+          <t>L_58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9717,12 +7033,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>L_61</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-1,-1,0,1,-1</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9732,12 +7048,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L_49</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,-1,-1,1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9747,12 +7063,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L_51</t>
+          <t>M_06</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1,0,0,1,-1</t>
+          <t>0,1,-1,1,0</t>
         </is>
       </c>
     </row>
@@ -9762,12 +7078,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L_52</t>
+          <t>M_07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1,0,0,0,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -9777,12 +7093,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L_53</t>
+          <t>M_09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9792,12 +7108,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>L_57</t>
+          <t>M_11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1,0,1,-1,-1</t>
+          <t>0,0,1,1,0</t>
         </is>
       </c>
     </row>
@@ -9807,12 +7123,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>L_58</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1,1,0,0,0</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9822,12 +7138,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>L_59</t>
+          <t>M_13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1,1,-1,-1,-1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9837,12 +7153,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>L_60</t>
+          <t>M_14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1,1,0,1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9852,12 +7168,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>M_16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,-1,1,1,0</t>
+          <t>1,0,1,0,-1</t>
         </is>
       </c>
     </row>
@@ -9867,12 +7183,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>L_66</t>
+          <t>M_17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1,1,0,0,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9882,12 +7198,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>L_67</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,0</t>
+          <t>-1,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9897,12 +7213,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L_68</t>
+          <t>M_23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-1,0,0,1,0</t>
+          <t>0,1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9912,12 +7228,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M_01</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,1,0,1,1</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9927,12 +7243,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M_02</t>
+          <t>M_26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>-1,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9942,12 +7258,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,-1,-1,1,0</t>
+          <t>1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9957,12 +7273,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M_04</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,1,0,0,1</t>
+          <t>0,1,1,-1,0</t>
         </is>
       </c>
     </row>
@@ -9972,12 +7288,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M_05</t>
+          <t>M_29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,0,1,1,-1</t>
+          <t>1,-1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9987,12 +7303,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M_06</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1,0,0,-1,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10002,12 +7318,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M_08</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1,-1,1,1,0</t>
+          <t>0,0,-1,1,0</t>
         </is>
       </c>
     </row>
@@ -10017,12 +7333,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>M_09</t>
+          <t>M_37</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1,-1,-1,-1,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10032,12 +7348,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M_10</t>
+          <t>M_38</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,-1,-1,0,-1</t>
+          <t>1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10047,12 +7363,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M_13</t>
+          <t>M_39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-1,-1,0,1,1</t>
+          <t>-1,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -10062,12 +7378,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M_14</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1,0,-1,1,-1</t>
+          <t>-1,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -10077,12 +7393,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_41</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,0,0,1,1</t>
+          <t>0,-1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -10092,12 +7408,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M_17</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1,-1,1,0,0</t>
+          <t>0,-1,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -10107,12 +7423,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M_18</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,1</t>
+          <t>-1,0,-1,-1,-1</t>
         </is>
       </c>
     </row>
@@ -10122,12 +7438,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>M_46</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,0,1,-1,-1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10137,12 +7453,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_48</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1,0,-1,1,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -10152,12 +7468,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_49</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1,1,0,1,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10167,12 +7483,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M_22</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-1,0,-1,1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10182,12 +7498,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_51</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,-1,0,1,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10197,12 +7513,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-1,1,1,1,0</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10212,12 +7528,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_53</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1,1,0,0,1</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -10227,12 +7543,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M_26</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1,1,0,1,-1</t>
+          <t>-1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10242,12 +7558,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M_27</t>
+          <t>M_56</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,-1,0,1,0</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -10257,12 +7573,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M_28</t>
+          <t>M_57</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-1,1,1,0,1</t>
+          <t>1,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10272,12 +7588,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_58</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-1,-1,0,0,0</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10287,12 +7603,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>M_61</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1,0,0,1,0</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10302,12 +7618,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>M_63</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-1,0,1,0,1</t>
+          <t>1,0,1,-1,0</t>
         </is>
       </c>
     </row>
@@ -10317,12 +7633,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M_32</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0,1,-1,1,1</t>
+          <t>0,0,0,-1,1</t>
         </is>
       </c>
     </row>
@@ -10332,12 +7648,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M_33</t>
+          <t>M_66</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,0</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10347,12 +7663,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M_35</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-1,1,1,-1,-1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10362,12 +7678,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M_37</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1,0,-1,-1,0</t>
+          <t>0,-1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -10377,12 +7693,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-1,1,0,-1,-1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10392,12 +7708,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,-1</t>
+          <t>-1,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10407,12 +7723,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0,0,-1,0,0</t>
+          <t>0,-1,-1,0,-1</t>
         </is>
       </c>
     </row>
@@ -10422,12 +7738,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M_48</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-1,0,0,1,1</t>
+          <t>1,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10437,12 +7753,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M_49</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,0,-1,0,-1</t>
+          <t>-1,0,1,1,0</t>
         </is>
       </c>
     </row>
@@ -10452,12 +7768,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0,1,1,0,-1</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10467,12 +7783,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1,0,0,1,-1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10482,12 +7798,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,0,0,-1,-1</t>
+          <t>1,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10497,312 +7813,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-1,-1,-1,0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>M_54</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>0,0,1,1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>M_56</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>-1,1,1,1,-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>M_57</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>0,0,1,1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>M_58</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1,1,0,-1,-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>M_59</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>0,0,0,0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>M_60</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>0,0,1,1,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>M_62</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>-1,1,-1,0,-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>M_64</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>0,0,1,1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>M_66</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>0,0,1,-1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>M_67</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>-1,-1,-1,1,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>M_68</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>1,1,-1,-1,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>M_69</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1,1,0,0,-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>P_01</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>-1,0,-1,0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>P_02</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>0,0,0,0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>P_04</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>-1,1,1,0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>P_05</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>-1,0,0,-1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>P_06</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1,0,-1,-1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>P_07</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>-1,-1,-1,1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>P_08</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1,0,-1,0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>P_09</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>0,-1,0,0,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
